--- a/Resources/Melbourne Postcodes.xlsx
+++ b/Resources/Melbourne Postcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamas\Desktop\Classwork\Project_1\bootcamp_project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7E9B01-6E90-4E87-A1FA-F33DFF09B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21066F88-92B3-481D-B817-A6839B5745A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="885" windowWidth="26550" windowHeight="19875" xr2:uid="{69E39D28-44C4-4256-A670-C28BDAC99E0F}"/>
+    <workbookView xWindow="17505" yWindow="510" windowWidth="26550" windowHeight="19875" xr2:uid="{69E39D28-44C4-4256-A670-C28BDAC99E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13417" uniqueCount="2669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13419" uniqueCount="2671">
   <si>
     <t>Inner City municipalities and their suburbs</t>
   </si>
@@ -8053,6 +8053,12 @@
   </si>
   <si>
     <t>Shared with City of Brimbank - was City of Hobsons Bay</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Where there are postcodes that are shared between Cities, the postcode is merged to one city</t>
   </si>
 </sst>
 </file>
@@ -14845,10 +14851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ADFA6D-FC2A-475C-9833-B8ADD37E9E07}">
-  <dimension ref="A1:K1012"/>
+  <dimension ref="A1:K1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1016" sqref="B1016"/>
+      <selection activeCell="A643" sqref="A643:B643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14971,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -15106,14 +15112,14 @@
     </row>
     <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="6" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Inner</v>
+        <v>Mid</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1058</v>
@@ -15142,14 +15148,14 @@
     </row>
     <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="6" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Inner</v>
+        <v>Mid</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1058</v>
@@ -15421,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -15457,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -15559,14 +15565,14 @@
     </row>
     <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="6" t="s">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1</v>
+        <v>907</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Inner</v>
+        <v>Mid</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>1058</v>
@@ -15796,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -15832,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -16306,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -16477,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -16517,7 +16523,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>1058</v>
@@ -16550,7 +16556,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>1058</v>
@@ -16586,7 +16592,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>1058</v>
@@ -16622,7 +16628,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>1058</v>
@@ -16655,7 +16661,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>1058</v>
@@ -16691,7 +16697,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>1058</v>
@@ -16724,7 +16730,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>1058</v>
@@ -16757,7 +16763,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>1058</v>
@@ -16790,7 +16796,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>1058</v>
@@ -16823,7 +16829,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>1058</v>
@@ -16856,7 +16862,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>1058</v>
@@ -16892,7 +16898,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>1058</v>
@@ -16925,7 +16931,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>1058</v>
@@ -16958,7 +16964,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>1058</v>
@@ -16991,7 +16997,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>1058</v>
@@ -17024,7 +17030,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>1058</v>
@@ -17057,7 +17063,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>1058</v>
@@ -17093,7 +17099,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ref="C66:C129" si="1">VLOOKUP(B66,CITY_LIST,2,FALSE)</f>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>1058</v>
@@ -17126,7 +17132,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>1058</v>
@@ -17159,7 +17165,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>1058</v>
@@ -17192,7 +17198,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>1058</v>
@@ -17228,7 +17234,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>1058</v>
@@ -17261,7 +17267,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>1058</v>
@@ -17294,7 +17300,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>1058</v>
@@ -17593,11 +17599,11 @@
         <v>75</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>1058</v>
@@ -17629,11 +17635,11 @@
         <v>75</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>1058</v>
@@ -18529,14 +18535,14 @@
     </row>
     <row r="109" spans="1:11" ht="15.75">
       <c r="A109" s="6" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>1058</v>
@@ -18634,14 +18640,14 @@
     </row>
     <row r="112" spans="1:11" ht="15.75">
       <c r="A112" s="6" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>1058</v>
@@ -18706,7 +18712,7 @@
         <v>75</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C114" s="5" t="str">
         <f t="shared" si="1"/>
@@ -20122,11 +20128,11 @@
         <v>75</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C156" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>1058</v>
@@ -20218,14 +20224,14 @@
     </row>
     <row r="159" spans="1:11" ht="15.75">
       <c r="A159" s="6" t="s">
-        <v>75</v>
+        <v>927</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>150</v>
+        <v>928</v>
       </c>
       <c r="C159" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>1058</v>
@@ -20389,11 +20395,11 @@
         <v>75</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C164" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>1058</v>
@@ -20695,10 +20701,10 @@
     </row>
     <row r="173" spans="1:11" ht="15.75">
       <c r="A173" s="6" t="s">
-        <v>75</v>
+        <v>927</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>150</v>
+        <v>988</v>
       </c>
       <c r="C173" s="5" t="str">
         <f t="shared" si="2"/>
@@ -23047,11 +23053,11 @@
         <v>75</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="C243" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>1058</v>
@@ -23383,10 +23389,10 @@
     </row>
     <row r="253" spans="1:11" ht="15.75">
       <c r="A253" s="6" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>247</v>
+        <v>472</v>
       </c>
       <c r="C253" s="5" t="str">
         <f t="shared" si="3"/>
@@ -23416,10 +23422,10 @@
     </row>
     <row r="254" spans="1:11" ht="15.75">
       <c r="A254" s="6" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>247</v>
+        <v>472</v>
       </c>
       <c r="C254" s="5" t="str">
         <f t="shared" si="3"/>
@@ -23518,7 +23524,7 @@
         <v>75</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C257" s="5" t="str">
         <f t="shared" si="3"/>
@@ -24154,7 +24160,7 @@
         <v>75</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C276" s="5" t="str">
         <f t="shared" si="4"/>
@@ -24895,7 +24901,7 @@
         <v>75</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="C298" s="5" t="str">
         <f t="shared" si="4"/>
@@ -25330,10 +25336,10 @@
     </row>
     <row r="311" spans="1:11" ht="15.75">
       <c r="A311" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>321</v>
+        <v>794</v>
       </c>
       <c r="C311" s="5" t="str">
         <f t="shared" si="4"/>
@@ -25363,10 +25369,10 @@
     </row>
     <row r="312" spans="1:11" ht="15.75">
       <c r="A312" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>321</v>
+        <v>794</v>
       </c>
       <c r="C312" s="5" t="str">
         <f t="shared" si="4"/>
@@ -25399,10 +25405,10 @@
     </row>
     <row r="313" spans="1:11" ht="15.75">
       <c r="A313" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>321</v>
+        <v>794</v>
       </c>
       <c r="C313" s="5" t="str">
         <f t="shared" si="4"/>
@@ -26173,10 +26179,10 @@
     </row>
     <row r="336" spans="1:11" ht="15.75">
       <c r="A336" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>321</v>
+        <v>907</v>
       </c>
       <c r="C336" s="5" t="str">
         <f t="shared" si="5"/>
@@ -28189,14 +28195,14 @@
     </row>
     <row r="396" spans="1:11" ht="15.75">
       <c r="A396" s="6" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>389</v>
+        <v>247</v>
       </c>
       <c r="C396" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>1058</v>
@@ -28222,14 +28228,14 @@
     </row>
     <row r="397" spans="1:11" ht="15.75">
       <c r="A397" s="6" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>389</v>
+        <v>247</v>
       </c>
       <c r="C397" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>1058</v>
@@ -28255,14 +28261,14 @@
     </row>
     <row r="398" spans="1:11" ht="15.75">
       <c r="A398" s="6" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>389</v>
+        <v>247</v>
       </c>
       <c r="C398" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>1058</v>
@@ -28291,7 +28297,7 @@
         <v>320</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C399" s="5" t="str">
         <f t="shared" si="6"/>
@@ -28357,7 +28363,7 @@
         <v>320</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C401" s="5" t="str">
         <f t="shared" si="6"/>
@@ -28393,7 +28399,7 @@
         <v>320</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C402" s="5" t="str">
         <f t="shared" si="6"/>
@@ -28429,7 +28435,7 @@
         <v>320</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="C403" s="5" t="str">
         <f t="shared" si="6"/>
@@ -28759,11 +28765,11 @@
         <v>320</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="C413" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>1058</v>
@@ -29926,7 +29932,7 @@
         <v>320</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="C448" s="5" t="str">
         <f t="shared" si="6"/>
@@ -30064,7 +30070,7 @@
         <v>320</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="C452" s="5" t="str">
         <f t="shared" si="7"/>
@@ -31855,10 +31861,10 @@
     </row>
     <row r="506" spans="1:11" ht="15.75">
       <c r="A506" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="C506" s="5" t="str">
         <f t="shared" si="7"/>
@@ -32158,10 +32164,10 @@
     </row>
     <row r="515" spans="1:11" ht="15.75">
       <c r="A515" s="6" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>472</v>
+        <v>659</v>
       </c>
       <c r="C515" s="5" t="str">
         <f t="shared" si="8"/>
@@ -34291,7 +34297,7 @@
         <v>572</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>573</v>
+        <v>761</v>
       </c>
       <c r="C579" s="5" t="str">
         <f t="shared" si="9"/>
@@ -35716,10 +35722,10 @@
     </row>
     <row r="622" spans="1:11" ht="15.75">
       <c r="A622" s="6" t="s">
-        <v>572</v>
+        <v>320</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="C622" s="5" t="str">
         <f t="shared" si="9"/>
@@ -36388,7 +36394,7 @@
         <v>572</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="C642" s="5" t="str">
         <f t="shared" ref="C642:C705" si="10">VLOOKUP(B642,CITY_LIST,2,FALSE)</f>
@@ -36421,7 +36427,7 @@
         <v>572</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="C643" s="5" t="str">
         <f t="shared" si="10"/>
@@ -37180,7 +37186,7 @@
     </row>
     <row r="666" spans="1:11" ht="15.75">
       <c r="A666" s="6" t="s">
-        <v>572</v>
+        <v>320</v>
       </c>
       <c r="B666" s="5" t="s">
         <v>373</v>
@@ -37216,7 +37222,7 @@
         <v>572</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>659</v>
+        <v>832</v>
       </c>
       <c r="C667" s="5" t="str">
         <f t="shared" si="10"/>
@@ -37912,11 +37918,11 @@
         <v>572</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>690</v>
+        <v>761</v>
       </c>
       <c r="C688" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D688" s="5" t="s">
         <v>1058</v>
@@ -37945,7 +37951,7 @@
         <v>572</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="C689" s="5" t="str">
         <f t="shared" si="10"/>
@@ -38545,7 +38551,7 @@
         <v>572</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
       <c r="C707" s="5" t="str">
         <f t="shared" si="11"/>
@@ -38677,7 +38683,7 @@
         <v>572</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
       <c r="C711" s="5" t="str">
         <f t="shared" si="11"/>
@@ -38710,7 +38716,7 @@
         <v>572</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
       <c r="C712" s="5" t="str">
         <f t="shared" si="11"/>
@@ -38743,7 +38749,7 @@
         <v>572</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
       <c r="C713" s="5" t="str">
         <f t="shared" si="11"/>
@@ -38776,7 +38782,7 @@
         <v>572</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>712</v>
+        <v>832</v>
       </c>
       <c r="C714" s="5" t="str">
         <f t="shared" si="11"/>
@@ -39010,7 +39016,7 @@
         <v>572</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>737</v>
+        <v>907</v>
       </c>
       <c r="C721" s="5" t="str">
         <f t="shared" si="11"/>
@@ -39568,14 +39574,14 @@
     </row>
     <row r="738" spans="1:11" ht="15.75">
       <c r="A738" s="6" t="s">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>737</v>
+        <v>24</v>
       </c>
       <c r="C738" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Mid</v>
+        <v>Inner</v>
       </c>
       <c r="D738" s="5" t="s">
         <v>1058</v>
@@ -39838,7 +39844,7 @@
         <v>572</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>761</v>
+        <v>573</v>
       </c>
       <c r="C746" s="5" t="str">
         <f t="shared" si="11"/>
@@ -39874,7 +39880,7 @@
         <v>572</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>761</v>
+        <v>573</v>
       </c>
       <c r="C747" s="5" t="str">
         <f t="shared" si="11"/>
@@ -39907,7 +39913,7 @@
         <v>572</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>761</v>
+        <v>573</v>
       </c>
       <c r="C748" s="5" t="str">
         <f t="shared" si="11"/>
@@ -40207,7 +40213,7 @@
         <v>572</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>761</v>
+        <v>573</v>
       </c>
       <c r="C757" s="5" t="str">
         <f t="shared" si="11"/>
@@ -40735,10 +40741,10 @@
     </row>
     <row r="773" spans="1:11" ht="15.75">
       <c r="A773" s="6" t="s">
-        <v>572</v>
+        <v>320</v>
       </c>
       <c r="B773" s="5" t="s">
-        <v>794</v>
+        <v>436</v>
       </c>
       <c r="C773" s="5" t="str">
         <f t="shared" si="12"/>
@@ -45196,11 +45202,11 @@
         <v>927</v>
       </c>
       <c r="B907" s="5" t="s">
-        <v>928</v>
+        <v>1023</v>
       </c>
       <c r="C907" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Mid</v>
+        <v>Outer</v>
       </c>
       <c r="D907" s="5" t="s">
         <v>1058</v>
@@ -45397,10 +45403,10 @@
     </row>
     <row r="913" spans="1:11" ht="15.75">
       <c r="A913" s="6" t="s">
-        <v>927</v>
+        <v>75</v>
       </c>
       <c r="B913" s="5" t="s">
-        <v>928</v>
+        <v>188</v>
       </c>
       <c r="C913" s="5" t="str">
         <f t="shared" si="14"/>
@@ -45532,10 +45538,10 @@
     </row>
     <row r="917" spans="1:11" ht="15.75">
       <c r="A917" s="6" t="s">
-        <v>927</v>
+        <v>75</v>
       </c>
       <c r="B917" s="5" t="s">
-        <v>928</v>
+        <v>188</v>
       </c>
       <c r="C917" s="5" t="str">
         <f t="shared" si="14"/>
@@ -46663,10 +46669,10 @@
     </row>
     <row r="951" spans="1:11" ht="15.75">
       <c r="A951" s="6" t="s">
-        <v>927</v>
+        <v>75</v>
       </c>
       <c r="B951" s="5" t="s">
-        <v>977</v>
+        <v>188</v>
       </c>
       <c r="C951" s="5" t="str">
         <f t="shared" si="14"/>
@@ -46831,11 +46837,11 @@
         <v>927</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C956" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>Outer</v>
+        <f t="shared" ref="C956" si="15">VLOOKUP(B956,CITY_LIST,2,FALSE)</f>
+        <v>Mid</v>
       </c>
       <c r="D956" s="5" t="s">
         <v>1058</v>
@@ -46864,11 +46870,11 @@
         <v>927</v>
       </c>
       <c r="B957" s="5" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C957" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D957" s="5" t="s">
         <v>1058</v>
@@ -46930,11 +46936,11 @@
         <v>927</v>
       </c>
       <c r="B959" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C959" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D959" s="5" t="s">
         <v>1058</v>
@@ -46963,11 +46969,11 @@
         <v>927</v>
       </c>
       <c r="B960" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C960" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D960" s="5" t="s">
         <v>1058</v>
@@ -46996,11 +47002,11 @@
         <v>927</v>
       </c>
       <c r="B961" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C961" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Outer</v>
+        <v>Mid</v>
       </c>
       <c r="D961" s="5" t="s">
         <v>1058</v>
@@ -47029,11 +47035,11 @@
         <v>927</v>
       </c>
       <c r="B962" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C962" s="5" t="str">
-        <f t="shared" ref="C962:C1012" si="15">VLOOKUP(B962,CITY_LIST,2,FALSE)</f>
-        <v>Outer</v>
+        <f t="shared" ref="C962:C1012" si="16">VLOOKUP(B962,CITY_LIST,2,FALSE)</f>
+        <v>Mid</v>
       </c>
       <c r="D962" s="5" t="s">
         <v>1058</v>
@@ -47062,11 +47068,11 @@
         <v>927</v>
       </c>
       <c r="B963" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C963" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Outer</v>
+        <f t="shared" si="16"/>
+        <v>Mid</v>
       </c>
       <c r="D963" s="5" t="s">
         <v>1058</v>
@@ -47098,7 +47104,7 @@
         <v>988</v>
       </c>
       <c r="C964" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D964" s="5" t="s">
@@ -47131,7 +47137,7 @@
         <v>988</v>
       </c>
       <c r="C965" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D965" s="5" t="s">
@@ -47164,7 +47170,7 @@
         <v>988</v>
       </c>
       <c r="C966" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D966" s="5" t="s">
@@ -47197,7 +47203,7 @@
         <v>988</v>
       </c>
       <c r="C967" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D967" s="5" t="s">
@@ -47233,7 +47239,7 @@
         <v>988</v>
       </c>
       <c r="C968" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D968" s="5" t="s">
@@ -47266,7 +47272,7 @@
         <v>988</v>
       </c>
       <c r="C969" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D969" s="5" t="s">
@@ -47299,7 +47305,7 @@
         <v>988</v>
       </c>
       <c r="C970" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D970" s="5" t="s">
@@ -47332,7 +47338,7 @@
         <v>988</v>
       </c>
       <c r="C971" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D971" s="5" t="s">
@@ -47365,7 +47371,7 @@
         <v>988</v>
       </c>
       <c r="C972" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D972" s="5" t="s">
@@ -47398,7 +47404,7 @@
         <v>988</v>
       </c>
       <c r="C973" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D973" s="5" t="s">
@@ -47431,7 +47437,7 @@
         <v>988</v>
       </c>
       <c r="C974" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D974" s="5" t="s">
@@ -47464,7 +47470,7 @@
         <v>988</v>
       </c>
       <c r="C975" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D975" s="5" t="s">
@@ -47497,7 +47503,7 @@
         <v>988</v>
       </c>
       <c r="C976" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D976" s="5" t="s">
@@ -47527,10 +47533,10 @@
         <v>927</v>
       </c>
       <c r="B977" s="5" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="C977" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D977" s="5" t="s">
@@ -47563,10 +47569,10 @@
         <v>927</v>
       </c>
       <c r="B978" s="5" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="C978" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D978" s="5" t="s">
@@ -47599,7 +47605,7 @@
         <v>988</v>
       </c>
       <c r="C979" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D979" s="5" t="s">
@@ -47635,7 +47641,7 @@
         <v>988</v>
       </c>
       <c r="C980" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D980" s="5" t="s">
@@ -47668,7 +47674,7 @@
         <v>988</v>
       </c>
       <c r="C981" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D981" s="5" t="s">
@@ -47698,11 +47704,11 @@
         <v>927</v>
       </c>
       <c r="B982" s="5" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="C982" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Outer</v>
+        <f t="shared" si="16"/>
+        <v>Mid</v>
       </c>
       <c r="D982" s="5" t="s">
         <v>1058</v>
@@ -47734,7 +47740,7 @@
         <v>988</v>
       </c>
       <c r="C983" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D983" s="5" t="s">
@@ -47767,7 +47773,7 @@
         <v>988</v>
       </c>
       <c r="C984" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D984" s="5" t="s">
@@ -47800,7 +47806,7 @@
         <v>988</v>
       </c>
       <c r="C985" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D985" s="5" t="s">
@@ -47833,7 +47839,7 @@
         <v>988</v>
       </c>
       <c r="C986" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D986" s="5" t="s">
@@ -47866,7 +47872,7 @@
         <v>988</v>
       </c>
       <c r="C987" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D987" s="5" t="s">
@@ -47896,10 +47902,10 @@
         <v>927</v>
       </c>
       <c r="B988" s="5" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="C988" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D988" s="5" t="s">
@@ -47932,10 +47938,10 @@
         <v>927</v>
       </c>
       <c r="B989" s="5" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="C989" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D989" s="5" t="s">
@@ -47968,7 +47974,7 @@
         <v>1023</v>
       </c>
       <c r="C990" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D990" s="5" t="s">
@@ -48001,7 +48007,7 @@
         <v>1023</v>
       </c>
       <c r="C991" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D991" s="5" t="s">
@@ -48031,11 +48037,11 @@
         <v>927</v>
       </c>
       <c r="B992" s="5" t="s">
-        <v>1023</v>
+        <v>961</v>
       </c>
       <c r="C992" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Outer</v>
+        <f t="shared" si="16"/>
+        <v>Mid</v>
       </c>
       <c r="D992" s="5" t="s">
         <v>1058</v>
@@ -48070,7 +48076,7 @@
         <v>1023</v>
       </c>
       <c r="C993" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D993" s="5" t="s">
@@ -48103,7 +48109,7 @@
         <v>1023</v>
       </c>
       <c r="C994" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D994" s="5" t="s">
@@ -48136,7 +48142,7 @@
         <v>1023</v>
       </c>
       <c r="C995" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D995" s="5" t="s">
@@ -48169,7 +48175,7 @@
         <v>1023</v>
       </c>
       <c r="C996" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D996" s="5" t="s">
@@ -48202,7 +48208,7 @@
         <v>1023</v>
       </c>
       <c r="C997" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D997" s="5" t="s">
@@ -48235,7 +48241,7 @@
         <v>1023</v>
       </c>
       <c r="C998" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D998" s="5" t="s">
@@ -48271,7 +48277,7 @@
         <v>1023</v>
       </c>
       <c r="C999" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D999" s="5" t="s">
@@ -48304,7 +48310,7 @@
         <v>1023</v>
       </c>
       <c r="C1000" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1000" s="5" t="s">
@@ -48337,7 +48343,7 @@
         <v>1023</v>
       </c>
       <c r="C1001" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1001" s="5" t="s">
@@ -48370,7 +48376,7 @@
         <v>1023</v>
       </c>
       <c r="C1002" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1002" s="5" t="s">
@@ -48403,7 +48409,7 @@
         <v>1023</v>
       </c>
       <c r="C1003" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1003" s="5" t="s">
@@ -48436,7 +48442,7 @@
         <v>1023</v>
       </c>
       <c r="C1004" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1004" s="5" t="s">
@@ -48469,7 +48475,7 @@
         <v>1023</v>
       </c>
       <c r="C1005" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1005" s="5" t="s">
@@ -48502,7 +48508,7 @@
         <v>1023</v>
       </c>
       <c r="C1006" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1006" s="5" t="s">
@@ -48532,10 +48538,10 @@
         <v>927</v>
       </c>
       <c r="B1007" s="5" t="s">
-        <v>1023</v>
+        <v>988</v>
       </c>
       <c r="C1007" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1007" s="5" t="s">
@@ -48571,7 +48577,7 @@
         <v>1023</v>
       </c>
       <c r="C1008" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1008" s="5" t="s">
@@ -48607,7 +48613,7 @@
         <v>1023</v>
       </c>
       <c r="C1009" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1009" s="5" t="s">
@@ -48640,7 +48646,7 @@
         <v>1023</v>
       </c>
       <c r="C1010" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1010" s="5" t="s">
@@ -48673,7 +48679,7 @@
         <v>1023</v>
       </c>
       <c r="C1011" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1011" s="5" t="s">
@@ -48706,10 +48712,10 @@
         <v>927</v>
       </c>
       <c r="B1012" s="5" t="s">
-        <v>1023</v>
+        <v>988</v>
       </c>
       <c r="C1012" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Outer</v>
       </c>
       <c r="D1012" s="5" t="s">
@@ -48733,6 +48739,10 @@
       <c r="K1012" s="5" t="s">
         <v>1046</v>
       </c>
+    </row>
+    <row r="1013" spans="1:11" ht="15.75">
+      <c r="A1013" s="6"/>
+      <c r="B1013" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1012" xr:uid="{62ADFA6D-FC2A-475C-9833-B8ADD37E9E07}"/>
@@ -63309,10 +63319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3441FC-B7B7-4357-8B8D-EBECF45550E9}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -63373,7 +63383,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -63617,6 +63627,14 @@
       </c>
       <c r="E32" t="s">
         <v>1055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2670</v>
       </c>
     </row>
   </sheetData>
@@ -63625,6 +63643,7 @@
     <hyperlink ref="B10" r:id="rId2" xr:uid="{B993463B-ED28-4AC0-8BCF-9BA0187ED183}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>